--- a/TrainingData/MiscFiles/TimeSweep100Bar130C.xlsx
+++ b/TrainingData/MiscFiles/TimeSweep100Bar130C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Himendra\Documents\Code\ConfocalImageAnalysis\CO2MachineLearning\TrainingData\MiscFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9178B09D-65A8-4668-B5AA-1949BD7FC2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9130CAE3-B4B7-4324-8767-720AA3BD6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40755" yWindow="210" windowWidth="29010" windowHeight="15450" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
+    <workbookView xWindow="38685" yWindow="1935" windowWidth="29010" windowHeight="15450" xr2:uid="{1CD4BD68-6A18-4F23-BCC7-708FEF507E13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I2" sqref="I2:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,8 +483,8 @@
         <v>0.01</v>
       </c>
       <c r="I2">
-        <f>2*PI()*H2^3*D2/3/G2</f>
-        <v>6.6882413199824313</v>
+        <f>1*PI()*H2^4*D2/2/G2</f>
+        <v>5.016180989986823E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -515,8 +515,8 @@
         <v>0.01</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">2*PI()*H3^3*D3/3/G3</f>
-        <v>6.4679109552106668</v>
+        <f t="shared" ref="I3:I66" si="2">1*PI()*H3^4*D3/2/G3</f>
+        <v>4.8509332164079995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>6.2741794082392968</v>
+        <v>4.7056345561794714E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>6.0886160021672602</v>
+        <v>4.5664620016254438E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>5.9116396160150337</v>
+        <v>4.4337297120112744E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>5.7355009879037668</v>
+        <v>4.3016257409278238E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>5.5949670765331829</v>
+        <v>4.1962253073998868E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>5.3834331711914709</v>
+        <v>4.0375748783936023E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>5.2558845094557256</v>
+        <v>3.9419133820917926E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>5.1233092994742355</v>
+        <v>3.8424819746056757E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>5.0056042947197374</v>
+        <v>3.7542032210398021E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>4.948427308424403</v>
+        <v>3.7113204813183018E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>4.8122916267688458</v>
+        <v>3.6092187200766332E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>4.6991942912396132</v>
+        <v>3.5243957184297091E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>4.590704624935646</v>
+        <v>3.4430284687017344E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>4.4903830995310114</v>
+        <v>3.3677873246482581E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>4.3923654087390105</v>
+        <v>3.2942740565542569E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>4.3002120242337094</v>
+        <v>3.2251590181752811E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>4.2179022967096564</v>
+        <v>3.1634267225322428E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>4.1437607100849378</v>
+        <v>3.1078205325637029E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>4.0650114542349538</v>
+        <v>3.0487585906762149E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>3.9902415490795171</v>
+        <v>2.992681161809637E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>3.9096073376373788</v>
+        <v>2.9322055032280334E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>3.8373507066048131</v>
+        <v>2.8780130299536095E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>3.7831058734528291</v>
+        <v>2.8373294050896215E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>3.7305365563827606</v>
+        <v>2.7979024172870695E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>3.6145070677101772</v>
+        <v>2.7108803007826324E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>3.572409726152074</v>
+        <v>2.6793072946140552E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>3.4720882007474398</v>
+        <v>2.6040661505605793E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>3.4364834840067555</v>
+        <v>2.5773626130050662E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>3.3795159372216603</v>
+        <v>2.5346369529162447E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>3.2955306936156936</v>
+        <v>2.4716480202117697E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>3.1937430916393845</v>
+        <v>2.3953073187295379E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>3.1727991406154525</v>
+        <v>2.3795993554615886E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>3.1489230364481702</v>
+        <v>2.3616922773361269E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>3.0762475263951261</v>
+        <v>2.3071856447963439E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>3.0427372047568348</v>
+        <v>2.2820529035676256E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>3.0037814558523217</v>
+        <v>2.2528360918892407E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>2.9428345583726792</v>
+        <v>2.2071259187795088E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>2.8764422336268152</v>
+        <v>2.1573316752201109E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>2.8391620008042158</v>
+        <v>2.1293715006031617E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>2.8018817679816173</v>
+        <v>2.1014113259862122E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>2.7884776393263011</v>
+        <v>2.0913582294947254E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>2.7622977005463865</v>
+        <v>2.071723275409789E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>2.6940204202083677</v>
+        <v>2.0205153151562752E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>2.6098257370921614</v>
+        <v>1.9573693028191202E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>2.5970499269675629</v>
+        <v>1.9477874452256714E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>2.5229083403428438</v>
+        <v>1.8921812552571322E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>2.4736900554366033</v>
+        <v>1.8552675415774524E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>2.4632180799246375</v>
+        <v>1.8474135599434775E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>2.3953596786070981</v>
+        <v>1.7965197589553231E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>2.3528434580285165</v>
+        <v>1.7646325935213869E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>2.3153537856956783</v>
+        <v>1.7365153392717582E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>2.2822623430778655</v>
+        <v>1.7116967573083987E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>2.2533596906648392</v>
+        <v>1.6900197679986292E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>2.2200588085367876</v>
+        <v>1.6650441064025905E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>2.197439341430941</v>
+        <v>1.6480795060732054E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>2.1656045358745644</v>
+        <v>1.6242034019059232E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>2.1360735649308205</v>
+        <v>1.6020551736981151E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>2.1188995250911962</v>
+        <v>1.589174643818397E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>2.0983744530877426</v>
+        <v>1.5737808398158068E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>2.0728018888875219</v>
+        <v>1.5546014166656413E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>2.057387140933908</v>
+        <v>1.5430403557004308E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>2.0446322747603336</v>
+        <v>1.5334742060702497E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>2.0216148725850323</v>
+        <v>1.5162111544387739E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2563,8 +2563,8 @@
         <v>0.01</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I91" si="5">2*PI()*H67^3*D67/3/G67</f>
-        <v>2.0049644315210062</v>
+        <f t="shared" ref="I67:I91" si="5">1*PI()*H67^4*D67/2/G67</f>
+        <v>1.5037233236407543E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="5"/>
-        <v>1.9832036664071411</v>
+        <v>1.4874027498053555E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="5"/>
-        <v>1.9981995353402764</v>
+        <v>1.4986496515052071E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>1.9419231389389713</v>
+        <v>1.4564423542042283E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="5"/>
-        <v>1.9330847916068719</v>
+        <v>1.4498135937051536E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="5"/>
-        <v>1.8904219633711223</v>
+        <v>1.4178164725283415E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>1.8782954157282661</v>
+        <v>1.4087215617961991E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="5"/>
-        <v>1.8742532331806467</v>
+        <v>1.4056899248854849E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="5"/>
-        <v>1.847507807723086</v>
+        <v>1.3856308557923141E-2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>1.8199246242245675</v>
+        <v>1.3649434681684253E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>1.8045727081240255</v>
+        <v>1.3534295310930188E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>1.7811783148302933</v>
+        <v>1.3358837361227198E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>1.7746856900128745</v>
+        <v>1.3310142675096556E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>1.7586426235285426</v>
+        <v>1.3189819676464067E-2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>1.7487151907431988</v>
+        <v>1.3115363930573989E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>1.7370284660718447</v>
+        <v>1.3027713495538834E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>1.7258025083230173</v>
+        <v>1.2943518812422627E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I84">
         <f t="shared" si="5"/>
-        <v>1.7133618014148018</v>
+        <v>1.2850213510611011E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="I85">
         <f t="shared" si="5"/>
-        <v>1.7049423331031808</v>
+        <v>1.2787067498273854E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="I86">
         <f t="shared" si="5"/>
-        <v>1.6735054626162591</v>
+        <v>1.2551290969621941E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="5"/>
-        <v>1.678155019743572</v>
+        <v>1.2586162648076788E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="I88">
         <f t="shared" si="5"/>
-        <v>1.6530432224658778</v>
+        <v>1.239782416849408E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="5"/>
-        <v>1.6606668206385888</v>
+        <v>1.2455001154789414E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="I90">
         <f t="shared" si="5"/>
-        <v>1.6357016310180621</v>
+        <v>1.2267762232635463E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="I91">
         <f t="shared" si="5"/>
-        <v>1.6239311305426123</v>
+        <v>1.2179483479069589E-2</v>
       </c>
     </row>
   </sheetData>
